--- a/data/input_behavior/BehaviorScenario_TechnologyTriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_TechnologyTriggerProbability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DFBBB-0AAB-FC4C-BDE9-50080BA4725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03532CB-7855-8948-B3EA-0FD9F8427B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="2980" windowWidth="26540" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,11 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -487,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.112</v>
+        <v>0.11210000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -669,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -865,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>9.11E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -991,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1033,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1075,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1089,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1103,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1117,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1130,8 +1134,8 @@
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
-        <v>0.50580000000000003</v>
+      <c r="D50" s="4">
+        <v>0.53046670162558995</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1144,8 +1148,8 @@
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="2">
-        <v>0.21299999999999999</v>
+      <c r="D51" s="4">
+        <v>0.22338751966439432</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1158,8 +1162,8 @@
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="2">
-        <v>0.23469999999999999</v>
+      <c r="D52" s="4">
+        <v>0.24614577871001572</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1252,26 +1256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1476,10 +1460,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1496,20 +1511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>